--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2268.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2268.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.144002615891975</v>
+        <v>1.220024228096008</v>
       </c>
       <c r="B1">
-        <v>2.371319589300679</v>
+        <v>2.699231624603271</v>
       </c>
       <c r="C1">
-        <v>5.509086840755892</v>
+        <v>4.47798490524292</v>
       </c>
       <c r="D1">
-        <v>2.864814293148786</v>
+        <v>2.138338327407837</v>
       </c>
       <c r="E1">
-        <v>1.229566184306804</v>
+        <v>1.161771059036255</v>
       </c>
     </row>
   </sheetData>
